--- a/hast2_1/tests/STAGES_v220/Results_stage2_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage2_v220.xlsx
@@ -536,7 +536,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -894,7 +894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -925,7 +925,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$B$37</c:f>
+              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,7 +946,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1075,129 +1075,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.485423</c:v>
+                  <c:v>6.940719000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.009175000000001</c:v>
+                  <c:v>19.407581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.787257</c:v>
+                  <c:v>27.171528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.860489</c:v>
+                  <c:v>5.481846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.209691</c:v>
+                  <c:v>13.864462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.952366</c:v>
+                  <c:v>31.832479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.363547</c:v>
+                  <c:v>19.971453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.484317</c:v>
+                  <c:v>4.84245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.366353</c:v>
+                  <c:v>11.114655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.22005</c:v>
+                  <c:v>32.285201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.85394</c:v>
+                  <c:v>7.447052999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.962845</c:v>
+                  <c:v>19.139835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.91144499999999</c:v>
+                  <c:v>29.663896</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.32033699999999</c:v>
+                  <c:v>42.802722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127.956612</c:v>
+                  <c:v>45.04624099999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.42055500000001</c:v>
+                  <c:v>61.76245600000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92.785668</c:v>
+                  <c:v>105.792242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.30733199999999</c:v>
+                  <c:v>37.285878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.505466</c:v>
+                  <c:v>22.31063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.415752</c:v>
+                  <c:v>12.717814</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.227887</c:v>
+                  <c:v>10.341246</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.19448</c:v>
+                  <c:v>8.352947</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.375257</c:v>
+                  <c:v>15.457375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.74752</c:v>
+                  <c:v>31.750877</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.25161</c:v>
+                  <c:v>19.945159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.957668</c:v>
+                  <c:v>8.285375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.589113</c:v>
+                  <c:v>5.627722</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.827444</c:v>
+                  <c:v>4.978912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.565202</c:v>
+                  <c:v>7.21327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.178123</c:v>
+                  <c:v>11.973376</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.827524</c:v>
+                  <c:v>14.437384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.765336</c:v>
+                  <c:v>16.92378</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.333923</c:v>
+                  <c:v>19.828327</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.338562</c:v>
+                  <c:v>32.412994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.249008</c:v>
+                  <c:v>16.736725</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.742942</c:v>
+                  <c:v>22.964653</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.41397199999999</c:v>
+                  <c:v>24.495892</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.529558</c:v>
+                  <c:v>30.930916</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.714183</c:v>
+                  <c:v>47.260188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.036587</c:v>
+                  <c:v>34.964776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1220,7 +1220,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1229,7 +1229,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1358,129 +1358,2818 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.499385</c:v>
+                  <c:v>7.147972</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.049302000000001</c:v>
+                  <c:v>19.916739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.846435</c:v>
+                  <c:v>27.523359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.904175</c:v>
+                  <c:v>5.918496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.301468</c:v>
+                  <c:v>15.624593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.826513</c:v>
+                  <c:v>35.997198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.337169</c:v>
+                  <c:v>20.040462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.523638</c:v>
+                  <c:v>4.785628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.353773</c:v>
+                  <c:v>11.295302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.27075300000001</c:v>
+                  <c:v>33.481632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.523957</c:v>
+                  <c:v>7.522719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.790224</c:v>
+                  <c:v>19.647169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.37106600000001</c:v>
+                  <c:v>29.921165</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.637812</c:v>
+                  <c:v>43.999738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.357925</c:v>
+                  <c:v>46.345989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.475025</c:v>
+                  <c:v>61.616868</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.84669100000001</c:v>
+                  <c:v>106.190405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.169381</c:v>
+                  <c:v>36.069847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.909215</c:v>
+                  <c:v>21.17918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.32327100000001</c:v>
+                  <c:v>12.140075</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.16206</c:v>
+                  <c:v>11.410296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.134141</c:v>
+                  <c:v>8.384596</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.406773</c:v>
+                  <c:v>13.655164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.693382</c:v>
+                  <c:v>26.305282</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.236924</c:v>
+                  <c:v>13.213761</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.957733999999999</c:v>
+                  <c:v>7.218978</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.636678</c:v>
+                  <c:v>7.55912</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.202604</c:v>
+                  <c:v>10.844275</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.830586</c:v>
+                  <c:v>15.48888</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.576886</c:v>
+                  <c:v>21.33319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.657887</c:v>
+                  <c:v>26.334176</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.291321</c:v>
+                  <c:v>31.112408</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.124855</c:v>
+                  <c:v>36.898573</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.935779</c:v>
+                  <c:v>62.501985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.054209</c:v>
+                  <c:v>26.691267</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.516058</c:v>
+                  <c:v>37.536838</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31.845928</c:v>
+                  <c:v>39.118761</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.165932</c:v>
+                  <c:v>57.259156</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.468094</c:v>
+                  <c:v>99.840244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.178652</c:v>
+                  <c:v>43.621835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.940719000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.407581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.171528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.481846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.864462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.832479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.971453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.84245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.114655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.285201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.447052999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.139835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.663896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.802722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.04624099999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.76245600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.792242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.285878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.31063</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.717814</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.341246</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.352947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.457375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.750877</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.945159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.285375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.627722</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.978912</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.21327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.973376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.437384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.92378</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.828327</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.412994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.736725</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.964653</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.495892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.930916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.260188</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.964776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.147972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.916739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.523359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.918496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.624593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.997198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.040462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.785628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.295302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.481632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.522719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.647169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.921165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.999738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.345989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.616868</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.190405</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.069847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.17918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.140075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.410296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.384596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.655164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.305282</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.213761</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.218978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.55912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.844275</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.48888</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.33319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.334176</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.112408</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.898573</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.501985</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.691267</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.536838</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.118761</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.259156</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.840244</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.621835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.567102999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.387688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.929135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.613572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.801278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.149723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.621954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.073782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.080288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.795841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.54693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.06461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.868599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.051672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.260185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.00719599999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.758393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.010834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.734398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.896658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.532721</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.198494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.73296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.950965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.604054</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.241086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.86273000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.707906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.236441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.289149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.280287</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.343146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.981632</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.498608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.206032</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.043221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.027873</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.266388</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.336279</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.547016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="19AE03"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.66022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.495909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.59472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.467174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.912412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.163755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.077361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.933917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.557288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.390469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.111202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.879334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.490893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.772495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.441821</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.006231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110.879993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.33173499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.972729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.475369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.040358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.953103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160.805674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.481851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.611942</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.790815</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.443365</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.287414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.144445</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.79994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.923586</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.826303999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.207126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.143901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.101794</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.972014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.663463</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.428588</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.526613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.120206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.567102999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.387688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.929135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.613572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.801278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.149723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.621954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.073782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.080288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.795841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.54693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.06461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.868599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.051672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.260185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.00719599999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.758393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.010834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.734398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.896658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.532721</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.198494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.73296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.950965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.604054</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.241086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.86273000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.707906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.236441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.289149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.280287</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.343146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.981632</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.498608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.206032</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.043221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.027873</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.266388</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.336279</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.547016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.66022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.495909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.59472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.467174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.912412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.163755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.077361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.933917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.557288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.390469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.111202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.879334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.490893</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.772495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.441821</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.006231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110.879993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.33173499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.972729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.475369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.040358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.953103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160.805674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.481851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.611942</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.790815</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.443365</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.287414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.144445</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.79994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.923586</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.826303999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.207126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.143901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.101794</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.972014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.663463</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.428588</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.526613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.120206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clonee 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.899489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.068426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.157411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.996334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.885813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.921726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.663825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.780247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.806515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.362968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.773676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.809908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.04355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.48069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.405615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.570042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.394003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.33216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.838231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.314602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.859789</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.553511</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.707541</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.118864</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.156598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.977916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.727552</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.258084</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.470323</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.401258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.779288</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.425622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.911447</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.944273</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.946017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.608381</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.534177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.78255</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.958803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57.761642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,7 +4282,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>step2</a:t>
+              <a:t>CLO2-CDU2-ckt1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1609,11 +4298,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:f>'Clonee 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>step2_Base_Case</c:v>
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,7 +4319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1759,412 +4448,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Clonee 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>6.838041</c:v>
+                  <c:v>12.03728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.212269</c:v>
+                  <c:v>28.547955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.231634</c:v>
+                  <c:v>26.304135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.423198</c:v>
+                  <c:v>21.511393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.454389</c:v>
+                  <c:v>34.334675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.662361</c:v>
+                  <c:v>38.536912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.421197</c:v>
+                  <c:v>41.919936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.144937000000001</c:v>
+                  <c:v>55.480991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.253927</c:v>
+                  <c:v>67.66122900000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.749946</c:v>
+                  <c:v>76.265039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.432068</c:v>
+                  <c:v>82.514394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.921417</c:v>
+                  <c:v>90.87204300000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.326766</c:v>
+                  <c:v>110.226588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.519955</c:v>
+                  <c:v>112.077542</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.86819000000001</c:v>
+                  <c:v>120.913227</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60.813703</c:v>
+                  <c:v>149.370795</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.331057</c:v>
+                  <c:v>99.614583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.598943</c:v>
+                  <c:v>87.69150400000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.808442</c:v>
+                  <c:v>104.353016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.321239</c:v>
+                  <c:v>130.325118</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.39244</c:v>
+                  <c:v>147.748302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.269468</c:v>
+                  <c:v>183.238674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.042093</c:v>
+                  <c:v>246.59546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.09994</c:v>
+                  <c:v>142.789185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.665392</c:v>
+                  <c:v>99.270943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.809689000000001</c:v>
+                  <c:v>124.425219</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.892592999999999</c:v>
+                  <c:v>108.561628</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.655962000000001</c:v>
+                  <c:v>120.778067</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.699571</c:v>
+                  <c:v>135.823694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.346469000000001</c:v>
+                  <c:v>151.665983</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.306494</c:v>
+                  <c:v>167.347866</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.664455</c:v>
+                  <c:v>182.425394</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.576038</c:v>
+                  <c:v>200.023384</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.920635</c:v>
+                  <c:v>218.667624</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.483313</c:v>
+                  <c:v>219.197161</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.308319</c:v>
+                  <c:v>221.201056</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.956038</c:v>
+                  <c:v>233.267212</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.551648</c:v>
+                  <c:v>261.815795</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.429235</c:v>
+                  <c:v>286.91153</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32.820252</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Corduff 220 kV'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7.045219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.720718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.575934</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.801733</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.205227</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.85862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.520363</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.104075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.433417</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.949842</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.504962</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.423168</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.578685</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42.680366</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45.167124</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60.659278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>106.696864</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37.376617</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.60052</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.590252</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.383358</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.260882000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.323918</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25.432317</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14.680935</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.855881</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.808802</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.372721</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.519375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.272841</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.917573</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.523529</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.312748</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>58.885158</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.468907</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.890926</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35.593843</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>52.443528</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>94.55014</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.729076</c:v>
+                  <c:v>246.033751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +4699,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2314,7 +4720,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2443,129 +4849,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>6.940719000000001</c:v>
+                  <c:v>3.485423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.407581</c:v>
+                  <c:v>8.009175000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.171528</c:v>
+                  <c:v>6.787257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.481846</c:v>
+                  <c:v>7.860489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.864462</c:v>
+                  <c:v>12.209691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.832479</c:v>
+                  <c:v>14.952366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.971453</c:v>
+                  <c:v>17.363547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.84245</c:v>
+                  <c:v>23.484317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.114655</c:v>
+                  <c:v>32.366353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.285201</c:v>
+                  <c:v>38.22005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.447052999999999</c:v>
+                  <c:v>48.85394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.139835</c:v>
+                  <c:v>49.962845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.663896</c:v>
+                  <c:v>56.91144499999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.802722</c:v>
+                  <c:v>94.32033699999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.04624099999999</c:v>
+                  <c:v>127.956612</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.76245600000001</c:v>
+                  <c:v>63.42055500000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105.792242</c:v>
+                  <c:v>92.785668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.285878</c:v>
+                  <c:v>92.30733199999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.31063</c:v>
+                  <c:v>76.505466</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.717814</c:v>
+                  <c:v>49.415752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.341246</c:v>
+                  <c:v>33.227887</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.352947</c:v>
+                  <c:v>27.19448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.457375</c:v>
+                  <c:v>19.375257</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.750877</c:v>
+                  <c:v>13.74752</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.945159</c:v>
+                  <c:v>7.25161</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.285375</c:v>
+                  <c:v>4.957668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.627722</c:v>
+                  <c:v>17.589113</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.978912</c:v>
+                  <c:v>49.827444</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.21327</c:v>
+                  <c:v>98.565202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.973376</c:v>
+                  <c:v>56.178123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.437384</c:v>
+                  <c:v>34.827524</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.92378</c:v>
+                  <c:v>75.765336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.828327</c:v>
+                  <c:v>46.333923</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.412994</c:v>
+                  <c:v>31.338562</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.736725</c:v>
+                  <c:v>29.249008</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.964653</c:v>
+                  <c:v>37.742942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.495892</c:v>
+                  <c:v>32.41397199999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.930916</c:v>
+                  <c:v>32.529558</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47.260188</c:v>
+                  <c:v>25.714183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.964776</c:v>
+                  <c:v>21.036587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,7 +4982,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2588,7 +4994,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2597,7 +5003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2726,129 +5132,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.147972</c:v>
+                  <c:v>3.499385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.916739</c:v>
+                  <c:v>8.049302000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.523359</c:v>
+                  <c:v>6.846435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.918496</c:v>
+                  <c:v>7.904175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.624593</c:v>
+                  <c:v>12.301468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.997198</c:v>
+                  <c:v>14.826513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.040462</c:v>
+                  <c:v>17.337169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.785628</c:v>
+                  <c:v>23.523638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.295302</c:v>
+                  <c:v>32.353773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.481632</c:v>
+                  <c:v>38.27075300000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.522719</c:v>
+                  <c:v>48.523957</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.647169</c:v>
+                  <c:v>50.790224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.921165</c:v>
+                  <c:v>57.37106600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.999738</c:v>
+                  <c:v>95.637812</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.345989</c:v>
+                  <c:v>129.357925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.616868</c:v>
+                  <c:v>64.475025</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.190405</c:v>
+                  <c:v>91.84669100000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.069847</c:v>
+                  <c:v>92.169381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.17918</c:v>
+                  <c:v>75.909215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.140075</c:v>
+                  <c:v>49.32327100000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.410296</c:v>
+                  <c:v>33.16206</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.384596</c:v>
+                  <c:v>27.134141</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.655164</c:v>
+                  <c:v>19.406773</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.305282</c:v>
+                  <c:v>13.693382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.213761</c:v>
+                  <c:v>7.236924</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.218978</c:v>
+                  <c:v>4.957733999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.55912</c:v>
+                  <c:v>17.636678</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.844275</c:v>
+                  <c:v>50.202604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.48888</c:v>
+                  <c:v>97.830586</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.33319</c:v>
+                  <c:v>55.576886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.334176</c:v>
+                  <c:v>34.657887</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.112408</c:v>
+                  <c:v>75.291321</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36.898573</c:v>
+                  <c:v>46.124855</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.501985</c:v>
+                  <c:v>30.935779</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.691267</c:v>
+                  <c:v>29.054209</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.536838</c:v>
+                  <c:v>37.516058</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.118761</c:v>
+                  <c:v>31.845928</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57.259156</c:v>
+                  <c:v>32.165932</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.840244</c:v>
+                  <c:v>25.468094</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.621835</c:v>
+                  <c:v>21.178652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,7 +5367,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>step2</a:t>
+              <a:t>Base_Case</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2977,7 +5383,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2998,7 +5404,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3127,412 +5533,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>6.567102999999999</c:v>
+                  <c:v>3.485423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.387688</c:v>
+                  <c:v>8.009175000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.929135</c:v>
+                  <c:v>6.787257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.613572</c:v>
+                  <c:v>7.860489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.801278</c:v>
+                  <c:v>12.209691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.149723</c:v>
+                  <c:v>14.952366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.621954</c:v>
+                  <c:v>17.363547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.073782</c:v>
+                  <c:v>23.484317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.080288</c:v>
+                  <c:v>32.366353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.795841</c:v>
+                  <c:v>38.22005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.54693</c:v>
+                  <c:v>48.85394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.06461</c:v>
+                  <c:v>49.962845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.868599</c:v>
+                  <c:v>56.91144499999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.051672</c:v>
+                  <c:v>94.32033699999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.260185</c:v>
+                  <c:v>127.956612</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.00719599999999</c:v>
+                  <c:v>63.42055500000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108.758393</c:v>
+                  <c:v>92.785668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.010834</c:v>
+                  <c:v>92.30733199999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.734398</c:v>
+                  <c:v>76.505466</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.896658</c:v>
+                  <c:v>49.415752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.532721</c:v>
+                  <c:v>33.227887</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.198494</c:v>
+                  <c:v>27.19448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>104.73296</c:v>
+                  <c:v>19.375257</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107.950965</c:v>
+                  <c:v>13.74752</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60.604054</c:v>
+                  <c:v>7.25161</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.241086</c:v>
+                  <c:v>4.957668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52.86273000000001</c:v>
+                  <c:v>17.589113</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.707906</c:v>
+                  <c:v>49.827444</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.236441</c:v>
+                  <c:v>98.565202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.289149</c:v>
+                  <c:v>56.178123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.280287</c:v>
+                  <c:v>34.827524</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.343146</c:v>
+                  <c:v>75.765336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.981632</c:v>
+                  <c:v>46.333923</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.498608</c:v>
+                  <c:v>31.338562</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.206032</c:v>
+                  <c:v>29.249008</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.043221</c:v>
+                  <c:v>37.742942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.027873</c:v>
+                  <c:v>32.41397199999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.266388</c:v>
+                  <c:v>32.529558</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31.336279</c:v>
+                  <c:v>25.714183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.547016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Woodland 220 kV'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>6.66022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.495909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.59472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.467174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.912412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.163755</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.077361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.933917</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.557288</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.390469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.111202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.879334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.490893</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46.772495</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.441821</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.006231</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110.879993</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.33173499999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.972729</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.475369</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40.040358</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69.953103</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>160.805674</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>111.481851</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.611942</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>53.790815</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.443365</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36.287414</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.144445</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.79994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.923586</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.826303999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15.207126</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32.143901</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.101794</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26.972014</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25.663463</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41.428588</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69.526613</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.120206</c:v>
+                  <c:v>21.036587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3630,6 +5753,1893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.499385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.049302000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.846435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.904175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.301468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.826513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.337169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.523638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.353773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.27075300000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.523957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.790224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.37106600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.637812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129.357925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.475025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.84669100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.169381</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.909215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.32327100000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.16206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.134141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.406773</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.693382</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.236924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.957733999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.636678</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.202604</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97.830586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.576886</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.657887</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.124855</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.935779</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.054209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.516058</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.845928</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.165932</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.468094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.178652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.838041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.212269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.231634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.423198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.454389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.662361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.421197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.144937000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.253927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.749946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.432068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.921417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.326766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.519955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.86819000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.813703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.331057</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.598943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.808442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.321239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.39244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.269468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.042093</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.09994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.665392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.809689000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.892592999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.655962000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.699571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.346469000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.306494</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.664455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.576038</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.920635</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.483313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.308319</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.956038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.551648</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.429235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.820252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="19AE03"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.045219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.720718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.575934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.801733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.205227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.85862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.520363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.104075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.433417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.949842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.504962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.423168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.578685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.680366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.167124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.659278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.696864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.376617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.60052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.590252</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.383358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.260882000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.323918</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.432317</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.680935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.855881</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.808802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.372721</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.519375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.272841</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.917573</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.523529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.312748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.885158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.468907</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.890926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.593843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.443528</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.55014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.729076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>6.838041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.212269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.231634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.423198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.454389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.662361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.421197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.144937000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.253927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.749946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.432068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.921417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.326766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.519955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.86819000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.813703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.331057</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.598943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.808442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.321239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.39244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.269468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.042093</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.09994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.665392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.809689000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.892592999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.655962000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.699571</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.346469000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.306494</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.664455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.576038</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.920635</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.483313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.308319</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.956038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.551648</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.429235</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.820252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step2_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.045219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.720718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.575934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.801733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.205227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.85862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.520363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.104075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.433417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.949842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.504962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.423168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.578685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.680366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.167124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.659278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.696864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.376617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.60052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.590252</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.383358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.260882000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.323918</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.432317</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.680935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.855881</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.808802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.372721</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.519375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.272841</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.917573</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.523529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.312748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.885158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.468907</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.890926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.593843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.443528</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.55014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.729076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3657,6 +7667,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3697,6 +7767,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3727,6 +7857,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3767,6 +7957,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3797,6 +8047,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
